--- a/caret/Plankton-Results.xlsx
+++ b/caret/Plankton-Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13155" windowHeight="5205"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="16950" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Directory</t>
   </si>
@@ -27,9 +27,6 @@
     <t>%CorrCutoff</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>LogLoss</t>
   </si>
   <si>
@@ -64,6 +61,14 @@
   </si>
   <si>
     <t>LDA-corr75-Balance100</t>
+  </si>
+  <si>
+    <t>Accuracy
+OOS Test</t>
+  </si>
+  <si>
+    <t>Accuracy 
+Full Train</t>
   </si>
 </sst>
 </file>
@@ -124,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,6 +142,12 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -467,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +493,12 @@
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,27 +506,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>95</v>
@@ -527,13 +546,13 @@
       <c r="E2" s="1">
         <v>20264</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>90</v>
@@ -553,13 +572,13 @@
       <c r="G3" s="3">
         <v>3.25</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2842</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>75</v>
@@ -574,18 +593,18 @@
         <v>20264</v>
       </c>
       <c r="F4" s="2">
-        <v>61.4</v>
+        <v>61.03</v>
       </c>
       <c r="G4" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="H4">
-        <v>1279</v>
+        <v>3.23</v>
+      </c>
+      <c r="J4">
+        <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -605,13 +624,13 @@
       <c r="G5" s="3">
         <v>3.37</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -631,11 +650,11 @@
       <c r="G6" s="3">
         <v>3.34</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -643,17 +662,40 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>75</v>
       </c>
       <c r="C8" s="1">
         <v>1178</v>
+      </c>
+      <c r="D8" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8107</v>
+      </c>
+      <c r="F8" s="2">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>59.86</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="J8">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
